--- a/Assets/Data/data.xlsx
+++ b/Assets/Data/data.xlsx
@@ -12,16 +12,17 @@
     <workbookView xWindow="240" yWindow="60" windowWidth="20115" windowHeight="8010" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
-    <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
-    <sheet name="Sheet2" sheetId="2" r:id="rId2"/>
-    <sheet name="Sheet3" sheetId="3" r:id="rId3"/>
+    <sheet name="Quiz" sheetId="4" r:id="rId1"/>
+    <sheet name="Sheet1" sheetId="1" r:id="rId2"/>
+    <sheet name="Sheet2" sheetId="2" r:id="rId3"/>
+    <sheet name="Sheet3" sheetId="3" r:id="rId4"/>
   </sheets>
   <calcPr calcId="144525"/>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="320" uniqueCount="298">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="608" uniqueCount="337">
   <si>
     <t>No</t>
   </si>
@@ -915,13 +916,130 @@
   </si>
   <si>
     <t>Jawaban</t>
+  </si>
+  <si>
+    <t>ID</t>
+  </si>
+  <si>
+    <t>MusicID</t>
+  </si>
+  <si>
+    <t>AnswerKey</t>
+  </si>
+  <si>
+    <t>A1</t>
+  </si>
+  <si>
+    <t>A2</t>
+  </si>
+  <si>
+    <t>A3</t>
+  </si>
+  <si>
+    <t>A4</t>
+  </si>
+  <si>
+    <t>A5</t>
+  </si>
+  <si>
+    <t>A6</t>
+  </si>
+  <si>
+    <t>A7</t>
+  </si>
+  <si>
+    <t>A8</t>
+  </si>
+  <si>
+    <t>A9</t>
+  </si>
+  <si>
+    <t>A10</t>
+  </si>
+  <si>
+    <t>0110010101</t>
+  </si>
+  <si>
+    <t>1101010001</t>
+  </si>
+  <si>
+    <t>1011001100</t>
+  </si>
+  <si>
+    <t>0100100111</t>
+  </si>
+  <si>
+    <t>1010101100</t>
+  </si>
+  <si>
+    <t>0101010011</t>
+  </si>
+  <si>
+    <t>1101010010</t>
+  </si>
+  <si>
+    <t>1011100001</t>
+  </si>
+  <si>
+    <t>0101101001</t>
+  </si>
+  <si>
+    <t>1011010010</t>
+  </si>
+  <si>
+    <t>0100110110</t>
+  </si>
+  <si>
+    <t>1001010101</t>
+  </si>
+  <si>
+    <t>0110101001</t>
+  </si>
+  <si>
+    <t>0111001001</t>
+  </si>
+  <si>
+    <t>1010110001</t>
+  </si>
+  <si>
+    <t>0101100101</t>
+  </si>
+  <si>
+    <t>1011001001</t>
+  </si>
+  <si>
+    <t>1010010110</t>
+  </si>
+  <si>
+    <t>0110010011</t>
+  </si>
+  <si>
+    <t>1100101001</t>
+  </si>
+  <si>
+    <t>1011000101</t>
+  </si>
+  <si>
+    <t>1001001011</t>
+  </si>
+  <si>
+    <t>0101001101</t>
+  </si>
+  <si>
+    <t>0101010101</t>
+  </si>
+  <si>
+    <t>Harimau! Harimau!</t>
+  </si>
+  <si>
+    <t>Karawang Bekasi</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="2" x14ac:knownFonts="1">
+  <fonts count="3" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -934,6 +1052,14 @@
       <color rgb="FF222222"/>
       <name val="Arial"/>
       <family val="2"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
     </font>
   </fonts>
   <fills count="3">
@@ -992,7 +1118,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="9">
+  <cellXfs count="13">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1"/>
     <xf numFmtId="0" fontId="1" fillId="2" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
@@ -1002,6 +1128,7 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="center" wrapText="1"/>
     </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
@@ -1011,12 +1138,76 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="1" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
+    <xf numFmtId="49" fontId="0" fillId="0" borderId="0" xfId="0" quotePrefix="1" applyNumberFormat="1"/>
+    <xf numFmtId="49" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
   </cellStyles>
-  <dxfs count="0"/>
+  <dxfs count="14">
+    <dxf>
+      <font>
+        <b/>
+        <i val="0"/>
+        <strike val="0"/>
+        <condense val="0"/>
+        <extend val="0"/>
+        <outline val="0"/>
+        <shadow val="0"/>
+        <u val="none"/>
+        <vertAlign val="baseline"/>
+        <sz val="11"/>
+        <color theme="1"/>
+        <name val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </font>
+      <alignment horizontal="general" vertical="center" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+    </dxf>
+    <dxf>
+      <numFmt numFmtId="30" formatCode="@"/>
+    </dxf>
+    <dxf>
+      <numFmt numFmtId="30" formatCode="@"/>
+    </dxf>
+    <dxf>
+      <numFmt numFmtId="30" formatCode="@"/>
+    </dxf>
+    <dxf>
+      <numFmt numFmtId="30" formatCode="@"/>
+    </dxf>
+    <dxf>
+      <numFmt numFmtId="30" formatCode="@"/>
+    </dxf>
+    <dxf>
+      <numFmt numFmtId="30" formatCode="@"/>
+    </dxf>
+    <dxf>
+      <numFmt numFmtId="30" formatCode="@"/>
+    </dxf>
+    <dxf>
+      <numFmt numFmtId="30" formatCode="@"/>
+    </dxf>
+    <dxf>
+      <numFmt numFmtId="30" formatCode="@"/>
+    </dxf>
+    <dxf>
+      <numFmt numFmtId="30" formatCode="@"/>
+    </dxf>
+    <dxf>
+      <numFmt numFmtId="30" formatCode="@"/>
+    </dxf>
+    <dxf>
+      <numFmt numFmtId="1" formatCode="0"/>
+    </dxf>
+    <dxf>
+      <numFmt numFmtId="1" formatCode="0"/>
+    </dxf>
+  </dxfs>
   <tableStyles count="0" defaultTableStyle="TableStyleMedium2" defaultPivotStyle="PivotStyleLight16"/>
   <extLst>
     <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{EB79DEF2-80B8-43e5-95BD-54CBDDF9020C}">
@@ -1027,6 +1218,28 @@
     </ext>
   </extLst>
 </styleSheet>
+</file>
+
+<file path=xl/tables/table1.xml><?xml version="1.0" encoding="utf-8"?>
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="1" xr:uid="{17090315-A5DA-466D-A858-3777EE9465C7}" name="Quiz" displayName="Quiz" ref="A1:M26" totalsRowShown="0" headerRowDxfId="0">
+  <autoFilter ref="A1:M26" xr:uid="{9FE074D0-0EE7-4A39-99F9-EE531F5961E8}"/>
+  <tableColumns count="13">
+    <tableColumn id="1" xr3:uid="{F32A1AC8-28E5-43EF-B7A3-A9C028FE5930}" name="ID" dataDxfId="13"/>
+    <tableColumn id="2" xr3:uid="{B6D2539A-391B-4752-B1CF-A11633611FF9}" name="MusicID" dataDxfId="12"/>
+    <tableColumn id="3" xr3:uid="{EF2003E5-2DBD-4C81-94FB-2440914D945E}" name="AnswerKey" dataDxfId="11"/>
+    <tableColumn id="4" xr3:uid="{8D70CA7C-F882-4477-BF62-2B1E4DD82B9F}" name="A1" dataDxfId="10"/>
+    <tableColumn id="5" xr3:uid="{4C25DC58-BAD9-4F94-9568-9E08DCA9BEE8}" name="A2" dataDxfId="9"/>
+    <tableColumn id="6" xr3:uid="{F130DC45-983F-41E9-ABCC-EF9683AC11B1}" name="A3" dataDxfId="8"/>
+    <tableColumn id="7" xr3:uid="{E361E0C2-9E7E-441D-89AD-946615B5BCF2}" name="A4" dataDxfId="7"/>
+    <tableColumn id="8" xr3:uid="{429ABDB9-641E-4B56-B622-066A35C88AFC}" name="A5" dataDxfId="6"/>
+    <tableColumn id="9" xr3:uid="{978F1157-8770-4E6A-86A7-D94995DE1841}" name="A6" dataDxfId="5"/>
+    <tableColumn id="10" xr3:uid="{7015EA60-3566-4609-9A5A-C5B9E4BF5D08}" name="A7" dataDxfId="4"/>
+    <tableColumn id="11" xr3:uid="{003DDEE9-16DC-4DC3-AE13-D20837D18ECC}" name="A8" dataDxfId="3"/>
+    <tableColumn id="12" xr3:uid="{137A24B5-E6B8-4ABF-82BE-55292EB6818D}" name="A9" dataDxfId="2"/>
+    <tableColumn id="13" xr3:uid="{DCEE2E8C-6832-4FEE-8145-44A4BBC3F249}" name="A10" dataDxfId="1"/>
+  </tableColumns>
+  <tableStyleInfo name="TableStyleMedium2" showFirstColumn="0" showLastColumn="0" showRowStripes="1" showColumnStripes="0"/>
+</table>
 </file>
 
 <file path=xl/theme/theme1.xml><?xml version="1.0" encoding="utf-8"?>
@@ -1349,11 +1562,1113 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{53D3EBFA-BE35-47AC-83CC-EB5AD74C1882}">
+  <dimension ref="A1:M26"/>
+  <sheetViews>
+    <sheetView tabSelected="1" topLeftCell="C14" workbookViewId="0">
+      <selection activeCell="G25" sqref="G25"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <cols>
+    <col min="1" max="1" width="5" customWidth="1"/>
+    <col min="2" max="2" width="10.28515625" customWidth="1"/>
+    <col min="3" max="3" width="13.140625" customWidth="1"/>
+    <col min="4" max="4" width="15.28515625" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="22.7109375" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="27.140625" bestFit="1" customWidth="1"/>
+    <col min="7" max="7" width="20.5703125" bestFit="1" customWidth="1"/>
+    <col min="8" max="8" width="16.42578125" bestFit="1" customWidth="1"/>
+    <col min="9" max="9" width="18.42578125" bestFit="1" customWidth="1"/>
+    <col min="10" max="10" width="20.85546875" bestFit="1" customWidth="1"/>
+    <col min="11" max="12" width="21.5703125" bestFit="1" customWidth="1"/>
+    <col min="13" max="13" width="18.5703125" bestFit="1" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="A1" s="9" t="s">
+        <v>298</v>
+      </c>
+      <c r="B1" s="9" t="s">
+        <v>299</v>
+      </c>
+      <c r="C1" s="9" t="s">
+        <v>300</v>
+      </c>
+      <c r="D1" s="9" t="s">
+        <v>301</v>
+      </c>
+      <c r="E1" s="9" t="s">
+        <v>302</v>
+      </c>
+      <c r="F1" s="9" t="s">
+        <v>303</v>
+      </c>
+      <c r="G1" s="9" t="s">
+        <v>304</v>
+      </c>
+      <c r="H1" s="9" t="s">
+        <v>305</v>
+      </c>
+      <c r="I1" s="9" t="s">
+        <v>306</v>
+      </c>
+      <c r="J1" s="9" t="s">
+        <v>307</v>
+      </c>
+      <c r="K1" s="9" t="s">
+        <v>308</v>
+      </c>
+      <c r="L1" s="9" t="s">
+        <v>309</v>
+      </c>
+      <c r="M1" s="9" t="s">
+        <v>310</v>
+      </c>
+    </row>
+    <row r="2" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="A2" s="10">
+        <v>1</v>
+      </c>
+      <c r="B2" s="10">
+        <v>0</v>
+      </c>
+      <c r="C2" s="11" t="s">
+        <v>311</v>
+      </c>
+      <c r="D2" s="12" t="s">
+        <v>23</v>
+      </c>
+      <c r="E2" s="12" t="s">
+        <v>18</v>
+      </c>
+      <c r="F2" s="12" t="s">
+        <v>19</v>
+      </c>
+      <c r="G2" s="12" t="s">
+        <v>24</v>
+      </c>
+      <c r="H2" s="12" t="s">
+        <v>25</v>
+      </c>
+      <c r="I2" s="12" t="s">
+        <v>20</v>
+      </c>
+      <c r="J2" s="12" t="s">
+        <v>26</v>
+      </c>
+      <c r="K2" s="12" t="s">
+        <v>22</v>
+      </c>
+      <c r="L2" s="12" t="s">
+        <v>27</v>
+      </c>
+      <c r="M2" s="12" t="s">
+        <v>21</v>
+      </c>
+    </row>
+    <row r="3" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="A3" s="10">
+        <v>2</v>
+      </c>
+      <c r="B3" s="10">
+        <v>0</v>
+      </c>
+      <c r="C3" s="11" t="s">
+        <v>312</v>
+      </c>
+      <c r="D3" s="12" t="s">
+        <v>30</v>
+      </c>
+      <c r="E3" s="12" t="s">
+        <v>31</v>
+      </c>
+      <c r="F3" s="12" t="s">
+        <v>37</v>
+      </c>
+      <c r="G3" s="12" t="s">
+        <v>32</v>
+      </c>
+      <c r="H3" s="12" t="s">
+        <v>35</v>
+      </c>
+      <c r="I3" s="12" t="s">
+        <v>33</v>
+      </c>
+      <c r="J3" s="12" t="s">
+        <v>36</v>
+      </c>
+      <c r="K3" s="12" t="s">
+        <v>38</v>
+      </c>
+      <c r="L3" s="12" t="s">
+        <v>39</v>
+      </c>
+      <c r="M3" s="12" t="s">
+        <v>34</v>
+      </c>
+    </row>
+    <row r="4" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="A4" s="10">
+        <v>3</v>
+      </c>
+      <c r="B4" s="10">
+        <v>0</v>
+      </c>
+      <c r="C4" s="11" t="s">
+        <v>313</v>
+      </c>
+      <c r="D4" s="12" t="s">
+        <v>42</v>
+      </c>
+      <c r="E4" s="12" t="s">
+        <v>47</v>
+      </c>
+      <c r="F4" s="12" t="s">
+        <v>43</v>
+      </c>
+      <c r="G4" s="12" t="s">
+        <v>44</v>
+      </c>
+      <c r="H4" s="12" t="s">
+        <v>48</v>
+      </c>
+      <c r="I4" s="12" t="s">
+        <v>49</v>
+      </c>
+      <c r="J4" s="12" t="s">
+        <v>45</v>
+      </c>
+      <c r="K4" s="12" t="s">
+        <v>46</v>
+      </c>
+      <c r="L4" s="12" t="s">
+        <v>50</v>
+      </c>
+      <c r="M4" s="12" t="s">
+        <v>51</v>
+      </c>
+    </row>
+    <row r="5" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="A5" s="10">
+        <v>4</v>
+      </c>
+      <c r="B5" s="10">
+        <v>0</v>
+      </c>
+      <c r="C5" s="11" t="s">
+        <v>314</v>
+      </c>
+      <c r="D5" s="12" t="s">
+        <v>59</v>
+      </c>
+      <c r="E5" s="12" t="s">
+        <v>54</v>
+      </c>
+      <c r="F5" s="12" t="s">
+        <v>60</v>
+      </c>
+      <c r="G5" s="12" t="s">
+        <v>61</v>
+      </c>
+      <c r="H5" s="12" t="s">
+        <v>55</v>
+      </c>
+      <c r="I5" s="12" t="s">
+        <v>62</v>
+      </c>
+      <c r="J5" s="12" t="s">
+        <v>63</v>
+      </c>
+      <c r="K5" s="12" t="s">
+        <v>56</v>
+      </c>
+      <c r="L5" s="12" t="s">
+        <v>57</v>
+      </c>
+      <c r="M5" s="12" t="s">
+        <v>58</v>
+      </c>
+    </row>
+    <row r="6" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="A6" s="10">
+        <v>5</v>
+      </c>
+      <c r="B6" s="10">
+        <v>0</v>
+      </c>
+      <c r="C6" s="11" t="s">
+        <v>315</v>
+      </c>
+      <c r="D6" s="12" t="s">
+        <v>66</v>
+      </c>
+      <c r="E6" s="12" t="s">
+        <v>71</v>
+      </c>
+      <c r="F6" s="12" t="s">
+        <v>67</v>
+      </c>
+      <c r="G6" s="12" t="s">
+        <v>72</v>
+      </c>
+      <c r="H6" s="12" t="s">
+        <v>68</v>
+      </c>
+      <c r="I6" s="12" t="s">
+        <v>73</v>
+      </c>
+      <c r="J6" s="12" t="s">
+        <v>70</v>
+      </c>
+      <c r="K6" s="12" t="s">
+        <v>69</v>
+      </c>
+      <c r="L6" s="12" t="s">
+        <v>74</v>
+      </c>
+      <c r="M6" s="12" t="s">
+        <v>75</v>
+      </c>
+    </row>
+    <row r="7" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="A7" s="10">
+        <v>6</v>
+      </c>
+      <c r="B7" s="10">
+        <v>0</v>
+      </c>
+      <c r="C7" s="11" t="s">
+        <v>316</v>
+      </c>
+      <c r="D7" s="12" t="s">
+        <v>83</v>
+      </c>
+      <c r="E7" s="12" t="s">
+        <v>78</v>
+      </c>
+      <c r="F7" s="12" t="s">
+        <v>84</v>
+      </c>
+      <c r="G7" s="12" t="s">
+        <v>79</v>
+      </c>
+      <c r="H7" s="12" t="s">
+        <v>85</v>
+      </c>
+      <c r="I7" s="12" t="s">
+        <v>80</v>
+      </c>
+      <c r="J7" s="12" t="s">
+        <v>86</v>
+      </c>
+      <c r="K7" s="12" t="s">
+        <v>87</v>
+      </c>
+      <c r="L7" s="12" t="s">
+        <v>81</v>
+      </c>
+      <c r="M7" s="12" t="s">
+        <v>82</v>
+      </c>
+    </row>
+    <row r="8" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="A8" s="10">
+        <v>7</v>
+      </c>
+      <c r="B8" s="10">
+        <v>0</v>
+      </c>
+      <c r="C8" s="11" t="s">
+        <v>317</v>
+      </c>
+      <c r="D8" s="12" t="s">
+        <v>90</v>
+      </c>
+      <c r="E8" s="12" t="s">
+        <v>91</v>
+      </c>
+      <c r="F8" s="12" t="s">
+        <v>95</v>
+      </c>
+      <c r="G8" s="12" t="s">
+        <v>92</v>
+      </c>
+      <c r="H8" s="12" t="s">
+        <v>96</v>
+      </c>
+      <c r="I8" s="12" t="s">
+        <v>93</v>
+      </c>
+      <c r="J8" s="12" t="s">
+        <v>97</v>
+      </c>
+      <c r="K8" s="12" t="s">
+        <v>98</v>
+      </c>
+      <c r="L8" s="12" t="s">
+        <v>94</v>
+      </c>
+      <c r="M8" s="12" t="s">
+        <v>99</v>
+      </c>
+    </row>
+    <row r="9" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="A9" s="10">
+        <v>8</v>
+      </c>
+      <c r="B9" s="10">
+        <v>0</v>
+      </c>
+      <c r="C9" s="11" t="s">
+        <v>318</v>
+      </c>
+      <c r="D9" s="12" t="s">
+        <v>102</v>
+      </c>
+      <c r="E9" s="12" t="s">
+        <v>107</v>
+      </c>
+      <c r="F9" s="12" t="s">
+        <v>103</v>
+      </c>
+      <c r="G9" s="12" t="s">
+        <v>104</v>
+      </c>
+      <c r="H9" s="12" t="s">
+        <v>105</v>
+      </c>
+      <c r="I9" s="12" t="s">
+        <v>19</v>
+      </c>
+      <c r="J9" s="12" t="s">
+        <v>108</v>
+      </c>
+      <c r="K9" s="12" t="s">
+        <v>109</v>
+      </c>
+      <c r="L9" s="12" t="s">
+        <v>110</v>
+      </c>
+      <c r="M9" s="12" t="s">
+        <v>106</v>
+      </c>
+    </row>
+    <row r="10" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="A10" s="10">
+        <v>9</v>
+      </c>
+      <c r="B10" s="10">
+        <v>0</v>
+      </c>
+      <c r="C10" s="11" t="s">
+        <v>319</v>
+      </c>
+      <c r="D10" s="12" t="s">
+        <v>120</v>
+      </c>
+      <c r="E10" s="12" t="s">
+        <v>113</v>
+      </c>
+      <c r="F10" s="12" t="s">
+        <v>118</v>
+      </c>
+      <c r="G10" s="12" t="s">
+        <v>116</v>
+      </c>
+      <c r="H10" s="12" t="s">
+        <v>114</v>
+      </c>
+      <c r="I10" s="12" t="s">
+        <v>119</v>
+      </c>
+      <c r="J10" s="12" t="s">
+        <v>115</v>
+      </c>
+      <c r="K10" s="12" t="s">
+        <v>121</v>
+      </c>
+      <c r="L10" s="12" t="s">
+        <v>122</v>
+      </c>
+      <c r="M10" s="12" t="s">
+        <v>117</v>
+      </c>
+    </row>
+    <row r="11" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="A11" s="10">
+        <v>10</v>
+      </c>
+      <c r="B11" s="10">
+        <v>0</v>
+      </c>
+      <c r="C11" s="11" t="s">
+        <v>320</v>
+      </c>
+      <c r="D11" s="12" t="s">
+        <v>124</v>
+      </c>
+      <c r="E11" s="12" t="s">
+        <v>129</v>
+      </c>
+      <c r="F11" s="12" t="s">
+        <v>125</v>
+      </c>
+      <c r="G11" s="12" t="s">
+        <v>128</v>
+      </c>
+      <c r="H11" s="12" t="s">
+        <v>130</v>
+      </c>
+      <c r="I11" s="12" t="s">
+        <v>126</v>
+      </c>
+      <c r="J11" s="12" t="s">
+        <v>131</v>
+      </c>
+      <c r="K11" s="12" t="s">
+        <v>132</v>
+      </c>
+      <c r="L11" s="12" t="s">
+        <v>127</v>
+      </c>
+      <c r="M11" s="12" t="s">
+        <v>133</v>
+      </c>
+    </row>
+    <row r="12" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="A12" s="10">
+        <v>11</v>
+      </c>
+      <c r="B12" s="10">
+        <v>0</v>
+      </c>
+      <c r="C12" s="11" t="s">
+        <v>321</v>
+      </c>
+      <c r="D12" s="12" t="s">
+        <v>140</v>
+      </c>
+      <c r="E12" s="12" t="s">
+        <v>135</v>
+      </c>
+      <c r="F12" s="12" t="s">
+        <v>141</v>
+      </c>
+      <c r="G12" s="12" t="s">
+        <v>142</v>
+      </c>
+      <c r="H12" s="12" t="s">
+        <v>136</v>
+      </c>
+      <c r="I12" s="12" t="s">
+        <v>137</v>
+      </c>
+      <c r="J12" s="12" t="s">
+        <v>143</v>
+      </c>
+      <c r="K12" s="12" t="s">
+        <v>138</v>
+      </c>
+      <c r="L12" s="12" t="s">
+        <v>139</v>
+      </c>
+      <c r="M12" s="12" t="s">
+        <v>144</v>
+      </c>
+    </row>
+    <row r="13" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="A13" s="10">
+        <v>12</v>
+      </c>
+      <c r="B13" s="10">
+        <v>0</v>
+      </c>
+      <c r="C13" s="11" t="s">
+        <v>322</v>
+      </c>
+      <c r="D13" s="12" t="s">
+        <v>149</v>
+      </c>
+      <c r="E13" s="12" t="s">
+        <v>154</v>
+      </c>
+      <c r="F13" s="12" t="s">
+        <v>155</v>
+      </c>
+      <c r="G13" s="12" t="s">
+        <v>150</v>
+      </c>
+      <c r="H13" s="12" t="s">
+        <v>156</v>
+      </c>
+      <c r="I13" s="12" t="s">
+        <v>151</v>
+      </c>
+      <c r="J13" s="12" t="s">
+        <v>157</v>
+      </c>
+      <c r="K13" s="12" t="s">
+        <v>152</v>
+      </c>
+      <c r="L13" s="12" t="s">
+        <v>158</v>
+      </c>
+      <c r="M13" s="12" t="s">
+        <v>153</v>
+      </c>
+    </row>
+    <row r="14" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="A14" s="10">
+        <v>13</v>
+      </c>
+      <c r="B14" s="10">
+        <v>0</v>
+      </c>
+      <c r="C14" s="11" t="s">
+        <v>323</v>
+      </c>
+      <c r="D14" s="12" t="s">
+        <v>18</v>
+      </c>
+      <c r="E14" s="12" t="s">
+        <v>161</v>
+      </c>
+      <c r="F14" s="12" t="s">
+        <v>162</v>
+      </c>
+      <c r="G14" s="12" t="s">
+        <v>165</v>
+      </c>
+      <c r="H14" s="12" t="s">
+        <v>22</v>
+      </c>
+      <c r="I14" s="12" t="s">
+        <v>166</v>
+      </c>
+      <c r="J14" s="12" t="s">
+        <v>163</v>
+      </c>
+      <c r="K14" s="12" t="s">
+        <v>23</v>
+      </c>
+      <c r="L14" s="12" t="s">
+        <v>167</v>
+      </c>
+      <c r="M14" s="12" t="s">
+        <v>164</v>
+      </c>
+    </row>
+    <row r="15" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="A15" s="10">
+        <v>14</v>
+      </c>
+      <c r="B15" s="10">
+        <v>0</v>
+      </c>
+      <c r="C15" s="11" t="s">
+        <v>318</v>
+      </c>
+      <c r="D15" s="12" t="s">
+        <v>171</v>
+      </c>
+      <c r="E15" s="12" t="s">
+        <v>166</v>
+      </c>
+      <c r="F15" s="12" t="s">
+        <v>163</v>
+      </c>
+      <c r="G15" s="12" t="s">
+        <v>172</v>
+      </c>
+      <c r="H15" s="12" t="s">
+        <v>165</v>
+      </c>
+      <c r="I15" s="12" t="s">
+        <v>173</v>
+      </c>
+      <c r="J15" s="12" t="s">
+        <v>174</v>
+      </c>
+      <c r="K15" s="12" t="s">
+        <v>175</v>
+      </c>
+      <c r="L15" s="12" t="s">
+        <v>154</v>
+      </c>
+      <c r="M15" s="12" t="s">
+        <v>161</v>
+      </c>
+    </row>
+    <row r="16" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="A16" s="10">
+        <v>15</v>
+      </c>
+      <c r="B16" s="10">
+        <v>0</v>
+      </c>
+      <c r="C16" s="11" t="s">
+        <v>324</v>
+      </c>
+      <c r="D16" s="12" t="s">
+        <v>183</v>
+      </c>
+      <c r="E16" s="12" t="s">
+        <v>178</v>
+      </c>
+      <c r="F16" s="12" t="s">
+        <v>179</v>
+      </c>
+      <c r="G16" s="12" t="s">
+        <v>180</v>
+      </c>
+      <c r="H16" s="12" t="s">
+        <v>184</v>
+      </c>
+      <c r="I16" s="12" t="s">
+        <v>185</v>
+      </c>
+      <c r="J16" s="12" t="s">
+        <v>181</v>
+      </c>
+      <c r="K16" s="12" t="s">
+        <v>186</v>
+      </c>
+      <c r="L16" s="12" t="s">
+        <v>187</v>
+      </c>
+      <c r="M16" s="12" t="s">
+        <v>182</v>
+      </c>
+    </row>
+    <row r="17" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="A17" s="10">
+        <v>16</v>
+      </c>
+      <c r="B17" s="10">
+        <v>0</v>
+      </c>
+      <c r="C17" s="11" t="s">
+        <v>325</v>
+      </c>
+      <c r="D17" s="12" t="s">
+        <v>190</v>
+      </c>
+      <c r="E17" s="12" t="s">
+        <v>194</v>
+      </c>
+      <c r="F17" s="12" t="s">
+        <v>191</v>
+      </c>
+      <c r="G17" s="12" t="s">
+        <v>195</v>
+      </c>
+      <c r="H17" s="12" t="s">
+        <v>197</v>
+      </c>
+      <c r="I17" s="12" t="s">
+        <v>192</v>
+      </c>
+      <c r="J17" s="12" t="s">
+        <v>196</v>
+      </c>
+      <c r="K17" s="12" t="s">
+        <v>198</v>
+      </c>
+      <c r="L17" s="12" t="s">
+        <v>199</v>
+      </c>
+      <c r="M17" s="12" t="s">
+        <v>193</v>
+      </c>
+    </row>
+    <row r="18" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="A18" s="10">
+        <v>17</v>
+      </c>
+      <c r="B18" s="10">
+        <v>0</v>
+      </c>
+      <c r="C18" s="11" t="s">
+        <v>326</v>
+      </c>
+      <c r="D18" s="12" t="s">
+        <v>193</v>
+      </c>
+      <c r="E18" s="12" t="s">
+        <v>202</v>
+      </c>
+      <c r="F18" s="12" t="s">
+        <v>203</v>
+      </c>
+      <c r="G18" s="12" t="s">
+        <v>196</v>
+      </c>
+      <c r="H18" s="12" t="s">
+        <v>199</v>
+      </c>
+      <c r="I18" s="12" t="s">
+        <v>195</v>
+      </c>
+      <c r="J18" s="12" t="s">
+        <v>204</v>
+      </c>
+      <c r="K18" s="12" t="s">
+        <v>190</v>
+      </c>
+      <c r="L18" s="12" t="s">
+        <v>205</v>
+      </c>
+      <c r="M18" s="12" t="s">
+        <v>198</v>
+      </c>
+    </row>
+    <row r="19" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="A19" s="10">
+        <v>18</v>
+      </c>
+      <c r="B19" s="10">
+        <v>0</v>
+      </c>
+      <c r="C19" s="11" t="s">
+        <v>327</v>
+      </c>
+      <c r="D19" s="12" t="s">
+        <v>208</v>
+      </c>
+      <c r="E19" s="12" t="s">
+        <v>213</v>
+      </c>
+      <c r="F19" s="12" t="s">
+        <v>211</v>
+      </c>
+      <c r="G19" s="12" t="s">
+        <v>209</v>
+      </c>
+      <c r="H19" s="12" t="s">
+        <v>214</v>
+      </c>
+      <c r="I19" s="12" t="s">
+        <v>215</v>
+      </c>
+      <c r="J19" s="12" t="s">
+        <v>210</v>
+      </c>
+      <c r="K19" s="12" t="s">
+        <v>216</v>
+      </c>
+      <c r="L19" s="12" t="s">
+        <v>217</v>
+      </c>
+      <c r="M19" s="12" t="s">
+        <v>212</v>
+      </c>
+    </row>
+    <row r="20" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="A20" s="10">
+        <v>19</v>
+      </c>
+      <c r="B20" s="10">
+        <v>0</v>
+      </c>
+      <c r="C20" s="11" t="s">
+        <v>328</v>
+      </c>
+      <c r="D20" s="12" t="s">
+        <v>220</v>
+      </c>
+      <c r="E20" s="12" t="s">
+        <v>224</v>
+      </c>
+      <c r="F20" s="12" t="s">
+        <v>221</v>
+      </c>
+      <c r="G20" s="12" t="s">
+        <v>70</v>
+      </c>
+      <c r="H20" s="12" t="s">
+        <v>225</v>
+      </c>
+      <c r="I20" s="12" t="s">
+        <v>222</v>
+      </c>
+      <c r="J20" s="12" t="s">
+        <v>226</v>
+      </c>
+      <c r="K20" s="12" t="s">
+        <v>72</v>
+      </c>
+      <c r="L20" s="12" t="s">
+        <v>223</v>
+      </c>
+      <c r="M20" s="12" t="s">
+        <v>227</v>
+      </c>
+    </row>
+    <row r="21" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="A21" s="10">
+        <v>20</v>
+      </c>
+      <c r="B21" s="10">
+        <v>0</v>
+      </c>
+      <c r="C21" s="11" t="s">
+        <v>329</v>
+      </c>
+      <c r="D21" s="12" t="s">
+        <v>236</v>
+      </c>
+      <c r="E21" s="12" t="s">
+        <v>230</v>
+      </c>
+      <c r="F21" s="12" t="s">
+        <v>231</v>
+      </c>
+      <c r="G21" s="12" t="s">
+        <v>237</v>
+      </c>
+      <c r="H21" s="12" t="s">
+        <v>238</v>
+      </c>
+      <c r="I21" s="12" t="s">
+        <v>232</v>
+      </c>
+      <c r="J21" s="12" t="s">
+        <v>234</v>
+      </c>
+      <c r="K21" s="12" t="s">
+        <v>235</v>
+      </c>
+      <c r="L21" s="12" t="s">
+        <v>233</v>
+      </c>
+      <c r="M21" s="12" t="s">
+        <v>230</v>
+      </c>
+    </row>
+    <row r="22" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="A22" s="10">
+        <v>21</v>
+      </c>
+      <c r="B22" s="10">
+        <v>0</v>
+      </c>
+      <c r="C22" s="11" t="s">
+        <v>330</v>
+      </c>
+      <c r="D22" s="12" t="s">
+        <v>243</v>
+      </c>
+      <c r="E22" s="12" t="s">
+        <v>241</v>
+      </c>
+      <c r="F22" s="12" t="s">
+        <v>246</v>
+      </c>
+      <c r="G22" s="12" t="s">
+        <v>250</v>
+      </c>
+      <c r="H22" s="12" t="s">
+        <v>242</v>
+      </c>
+      <c r="I22" s="12" t="s">
+        <v>335</v>
+      </c>
+      <c r="J22" s="12" t="s">
+        <v>244</v>
+      </c>
+      <c r="K22" s="12" t="s">
+        <v>248</v>
+      </c>
+      <c r="L22" s="12" t="s">
+        <v>249</v>
+      </c>
+      <c r="M22" s="12" t="s">
+        <v>245</v>
+      </c>
+    </row>
+    <row r="23" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="A23" s="10">
+        <v>22</v>
+      </c>
+      <c r="B23" s="10">
+        <v>0</v>
+      </c>
+      <c r="C23" s="11" t="s">
+        <v>331</v>
+      </c>
+      <c r="D23" s="12" t="s">
+        <v>104</v>
+      </c>
+      <c r="E23" s="12" t="s">
+        <v>257</v>
+      </c>
+      <c r="F23" s="12" t="s">
+        <v>253</v>
+      </c>
+      <c r="G23" s="12" t="s">
+        <v>254</v>
+      </c>
+      <c r="H23" s="12" t="s">
+        <v>258</v>
+      </c>
+      <c r="I23" s="12" t="s">
+        <v>259</v>
+      </c>
+      <c r="J23" s="12" t="s">
+        <v>260</v>
+      </c>
+      <c r="K23" s="12" t="s">
+        <v>255</v>
+      </c>
+      <c r="L23" s="12" t="s">
+        <v>261</v>
+      </c>
+      <c r="M23" s="12" t="s">
+        <v>256</v>
+      </c>
+    </row>
+    <row r="24" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="A24" s="10">
+        <v>23</v>
+      </c>
+      <c r="B24" s="10">
+        <v>0</v>
+      </c>
+      <c r="C24" s="11" t="s">
+        <v>332</v>
+      </c>
+      <c r="D24" s="12" t="s">
+        <v>264</v>
+      </c>
+      <c r="E24" s="12" t="s">
+        <v>269</v>
+      </c>
+      <c r="F24" s="12" t="s">
+        <v>270</v>
+      </c>
+      <c r="G24" s="12" t="s">
+        <v>265</v>
+      </c>
+      <c r="H24" s="12" t="s">
+        <v>271</v>
+      </c>
+      <c r="I24" s="12" t="s">
+        <v>272</v>
+      </c>
+      <c r="J24" s="12" t="s">
+        <v>266</v>
+      </c>
+      <c r="K24" s="12" t="s">
+        <v>273</v>
+      </c>
+      <c r="L24" s="12" t="s">
+        <v>268</v>
+      </c>
+      <c r="M24" s="12" t="s">
+        <v>267</v>
+      </c>
+    </row>
+    <row r="25" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="A25" s="10">
+        <v>24</v>
+      </c>
+      <c r="B25" s="10">
+        <v>0</v>
+      </c>
+      <c r="C25" s="11" t="s">
+        <v>333</v>
+      </c>
+      <c r="D25" s="12" t="s">
+        <v>280</v>
+      </c>
+      <c r="E25" s="12" t="s">
+        <v>136</v>
+      </c>
+      <c r="F25" s="12" t="s">
+        <v>281</v>
+      </c>
+      <c r="G25" s="12" t="s">
+        <v>336</v>
+      </c>
+      <c r="H25" s="12" t="s">
+        <v>282</v>
+      </c>
+      <c r="I25" s="12" t="s">
+        <v>283</v>
+      </c>
+      <c r="J25" s="12" t="s">
+        <v>276</v>
+      </c>
+      <c r="K25" s="12" t="s">
+        <v>277</v>
+      </c>
+      <c r="L25" s="12" t="s">
+        <v>284</v>
+      </c>
+      <c r="M25" s="12" t="s">
+        <v>278</v>
+      </c>
+    </row>
+    <row r="26" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="A26" s="10">
+        <v>25</v>
+      </c>
+      <c r="B26" s="10">
+        <v>0</v>
+      </c>
+      <c r="C26" s="11" t="s">
+        <v>334</v>
+      </c>
+      <c r="D26" s="12" t="s">
+        <v>292</v>
+      </c>
+      <c r="E26" s="12" t="s">
+        <v>287</v>
+      </c>
+      <c r="F26" s="12" t="s">
+        <v>293</v>
+      </c>
+      <c r="G26" s="12" t="s">
+        <v>288</v>
+      </c>
+      <c r="H26" s="12" t="s">
+        <v>294</v>
+      </c>
+      <c r="I26" s="12" t="s">
+        <v>289</v>
+      </c>
+      <c r="J26" s="12" t="s">
+        <v>295</v>
+      </c>
+      <c r="K26" s="12" t="s">
+        <v>290</v>
+      </c>
+      <c r="L26" s="12" t="s">
+        <v>296</v>
+      </c>
+      <c r="M26" s="12" t="s">
+        <v>291</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup orientation="portrait" r:id="rId1"/>
+  <customProperties>
+    <customPr name="Devart.Data.Excel" r:id="rId2"/>
+  </customProperties>
+  <tableParts count="1">
+    <tablePart r:id="rId3"/>
+  </tableParts>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:P27"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="E1" zoomScale="60" zoomScaleNormal="60" workbookViewId="0">
-      <selection activeCell="E3" sqref="E3:O3"/>
+    <sheetView topLeftCell="E1" zoomScale="60" zoomScaleNormal="60" workbookViewId="0">
+      <selection activeCell="L9" sqref="L9"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -1376,42 +2691,42 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:16" x14ac:dyDescent="0.25">
-      <c r="A1" s="7" t="s">
+      <c r="A1" s="8" t="s">
         <v>0</v>
       </c>
-      <c r="B1" s="7" t="s">
+      <c r="B1" s="8" t="s">
         <v>14</v>
       </c>
-      <c r="C1" s="5" t="s">
+      <c r="C1" s="6" t="s">
         <v>15</v>
       </c>
-      <c r="D1" s="6" t="s">
+      <c r="D1" s="7" t="s">
         <v>1</v>
       </c>
       <c r="E1" s="4" t="s">
         <v>297</v>
       </c>
-      <c r="F1" s="8" t="s">
+      <c r="F1" s="5" t="s">
         <v>2</v>
       </c>
-      <c r="G1" s="8"/>
-      <c r="H1" s="8"/>
-      <c r="I1" s="8"/>
-      <c r="J1" s="8"/>
-      <c r="K1" s="8"/>
-      <c r="L1" s="8"/>
-      <c r="M1" s="8"/>
-      <c r="N1" s="8"/>
-      <c r="O1" s="8"/>
+      <c r="G1" s="5"/>
+      <c r="H1" s="5"/>
+      <c r="I1" s="5"/>
+      <c r="J1" s="5"/>
+      <c r="K1" s="5"/>
+      <c r="L1" s="5"/>
+      <c r="M1" s="5"/>
+      <c r="N1" s="5"/>
+      <c r="O1" s="5"/>
       <c r="P1" s="4" t="s">
         <v>13</v>
       </c>
     </row>
     <row r="2" spans="1:16" x14ac:dyDescent="0.25">
-      <c r="A2" s="7"/>
-      <c r="B2" s="7"/>
-      <c r="C2" s="5"/>
-      <c r="D2" s="6"/>
+      <c r="A2" s="8"/>
+      <c r="B2" s="8"/>
+      <c r="C2" s="6"/>
+      <c r="D2" s="7"/>
       <c r="E2" s="4"/>
       <c r="F2" t="s">
         <v>3</v>
@@ -2566,7 +3881,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0100-000000000000}">
   <dimension ref="A1"/>
   <sheetViews>
@@ -2578,7 +3893,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0200-000000000000}">
   <dimension ref="A1"/>
   <sheetViews>
